--- a/ALU_opcode.xlsx
+++ b/ALU_opcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog Project\ALU\Arithmetic-Logic-Unit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91528D-CEA8-4EE0-9935-977C8B5D6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B686A48-BB23-4895-B896-F24F2CC21BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,8 +137,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -146,18 +150,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -166,7 +161,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -175,48 +220,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -226,40 +236,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,212 +545,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="6" t="str">
         <f xml:space="preserve"> DEC2BIN(0, 4)</f>
         <v>0000</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6" t="str">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(1, 4)</f>
         <v>0001</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6" t="str">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(2, 4)</f>
         <v>0010</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6" t="str">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(3, 4)</f>
         <v>0011</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="8" t="str">
         <f xml:space="preserve"> DEC2BIN(4, 4)</f>
         <v>0100</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6" t="str">
         <f xml:space="preserve"> DEC2BIN(5, 4)</f>
         <v>0101</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="str">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(6, 4)</f>
         <v>0110</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="str">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(7, 4)</f>
         <v>0111</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6" t="str">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(8, 4)</f>
         <v>1000</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="6" t="str">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(9, 4)</f>
         <v>1001</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6" t="str">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(10, 4)</f>
         <v>1010</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="8" t="str">
         <f xml:space="preserve"> DEC2BIN(11, 4)</f>
         <v>1011</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="6" t="str">
         <f xml:space="preserve"> DEC2BIN(12, 4)</f>
         <v>1100</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6" t="str">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(13, 4)</f>
         <v>1101</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="str">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="str">
         <f xml:space="preserve"> DEC2BIN(14, 4)</f>
         <v>1110</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="8" t="str">
         <f xml:space="preserve"> DEC2BIN(15, 4)</f>
         <v>1111</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ALU_opcode.xlsx
+++ b/ALU_opcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog Project\ALU\Arithmetic-Logic-Unit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B686A48-BB23-4895-B896-F24F2CC21BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB3713-8D90-473A-909E-1AE09E523F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>A - B</t>
   </si>
   <si>
-    <t>A * B</t>
-  </si>
-  <si>
     <t>A + 1</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>A rotate left by B (3 bits)</t>
   </si>
   <si>
-    <t>A rotate right by 1 (3 bits)</t>
-  </si>
-  <si>
     <t>A &lt;&lt; B (3 bits)</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Shift</t>
+  </si>
+  <si>
+    <t>A rotate right by B (3 bits)</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>0010</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>0011</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,19 +617,19 @@
         <v>0100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="str">
         <f xml:space="preserve"> DEC2BIN(5, 4)</f>
         <v>0101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>0110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>0111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>1000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>1001</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>1010</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,19 +689,19 @@
         <v>1011</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="str">
         <f xml:space="preserve"> DEC2BIN(12, 4)</f>
         <v>1100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>1101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>1110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>1111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ALU_opcode.xlsx
+++ b/ALU_opcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Verilog Project\ALU\Arithmetic-Logic-Unit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB3713-8D90-473A-909E-1AE09E523F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF7943-7F81-4234-ADE6-CBA72253F1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +549,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +598,7 @@
         <v>0010</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +608,7 @@
         <v>0011</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,8 +617,8 @@
         <f xml:space="preserve"> DEC2BIN(4, 4)</f>
         <v>0100</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,7 +629,7 @@
         <f xml:space="preserve"> DEC2BIN(5, 4)</f>
         <v>0101</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
